--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire.html/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.</t>
@@ -1130,7 +1130,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1143,64 +1143,6 @@
   </si>
   <si>
     <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about specific groups or questions within it. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
-  </si>
-  <si>
-    <t>answerExpression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression}
-</t>
-  </si>
-  <si>
-    <t>Expression for possible answers</t>
-  </si>
-  <si>
-    <t>An expression (FHIRPath, CQL or FHIR Query) that resolves to a list of permitted answers for the question item or that establishes context for a group item.  The user may select from among the list to choose answers for the question.</t>
-  </si>
-  <si>
-    <t>This is only permitted when the containing item does NOT have any answerOption or answerValueSet elements. The results of the expression must correspond to the item type of the question the element appears on or must correspond to a resource, backbone element or complex data type for a group item.  Resources are considered a match for the Reference item type.  Quantity can be a match for decimal and integer items so long as a questionnaire-unit extension is present.</t>
-  </si>
-  <si>
-    <t>choiceConstraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-choiceConstraint}
-</t>
-  </si>
-  <si>
-    <t>optionsOnly | optionOrType | optionOrString</t>
-  </si>
-  <si>
-    <t>Controls what the user is allowed to enter as an answer aside from the answer options provided. NOTE: This extension should be moved to core in R5.</t>
-  </si>
-  <si>
-    <t>This element is useful for questions with "Other" textbox or comment field. It allows users to either provide an alternative answer (if any of the answer options do not apply to them)  or offer additional information about their choice.</t>
-  </si>
-  <si>
-    <t>UnitOpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-unitOpen}
-</t>
-  </si>
-  <si>
-    <t>Used to denote if user can specify alternate codes</t>
-  </si>
-  <si>
-    <t>Indicates whether the list of supported units (conveyed in other extensions) are the exhaustive list from which the user must choose or whether they're able to select alternate codes or specify a string.</t>
-  </si>
-  <si>
-    <t>UnitSupplementalSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-unitSupplementalSystem}
-</t>
-  </si>
-  <si>
-    <t>This extension indicates the code system the additional units are drawn from</t>
-  </si>
-  <si>
-    <t>If the questionnaire-unit-open extension indicates that additional units other than the set of options provided for the question are allowed, this indicates the code system those units are expected to be drawn from.  This extension SHOULD be present on any question where questionare-unit-open allows additional coded values.</t>
   </si>
   <si>
     <t>unit</t>
@@ -1236,6 +1178,25 @@
   </si>
   <si>
     <t>If an item is hidden, all descendant items are hidden as well.</t>
+  </si>
+  <si>
+    <t>isSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-isSubject}
+</t>
+  </si>
+  <si>
+    <t>Marks that this item identifies a different subject</t>
+  </si>
+  <si>
+    <t>If present and true, indicates that the item establishes a different subject for the group in a response.</t>
+  </si>
+  <si>
+    <t>The item type must be "reference" and there can only be one item with this extension in each group.</t>
+  </si>
+  <si>
+    <t>Allows the extraction process to leverage the fact that the subject for this group and descendants is distinct</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -2007,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2017,7 +1978,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6760,7 +6721,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -7413,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7422,7 +7383,7 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7434,12 +7395,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7452,7 +7413,7 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7461,16 +7422,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7529,7 +7490,7 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
@@ -7555,7 +7516,7 @@
         <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
@@ -7577,16 +7538,20 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7643,7 +7608,7 @@
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>137</v>
@@ -7666,41 +7631,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7748,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7757,7 +7724,7 @@
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>137</v>
@@ -7766,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7780,17 +7747,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7805,18 +7770,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7864,25 +7831,25 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>169</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7896,11 +7863,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7921,18 +7886,20 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7980,25 +7947,25 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8012,11 +7979,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8029,25 +7996,25 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8072,13 +8039,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8096,7 +8063,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8105,16 +8072,16 @@
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8128,15 +8095,15 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
@@ -8154,16 +8121,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8212,10 +8179,10 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -8230,7 +8197,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8242,9 +8209,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8258,7 +8225,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8267,20 +8234,18 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8328,7 +8293,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8346,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>291</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8358,9 +8323,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8368,13 +8333,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8383,19 +8348,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8420,13 +8385,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8444,16 +8409,16 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8462,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8474,44 +8439,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8560,19 +8525,19 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
@@ -8590,9 +8555,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8606,7 +8571,7 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8618,14 +8583,12 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8674,7 +8637,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8686,13 +8649,13 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8704,23 +8667,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8729,20 +8692,18 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8766,13 +8727,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8790,25 +8751,25 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>169</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8822,11 +8783,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8842,22 +8803,22 @@
         <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>189</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>190</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8906,7 +8867,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8918,13 +8879,13 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8938,7 +8899,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8946,7 +8907,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
@@ -8964,12 +8925,14 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9018,10 +8981,10 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>165</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -9030,13 +8993,13 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9050,18 +9013,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9073,17 +9036,15 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9108,13 +9069,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9132,25 +9093,25 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9164,43 +9125,39 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>441</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9224,13 +9181,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9248,25 +9205,25 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9280,7 +9237,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9288,7 +9245,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>86</v>
@@ -9303,16 +9260,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9338,13 +9295,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9362,16 +9319,16 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9380,7 +9337,7 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9392,9 +9349,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9402,13 +9359,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9417,20 +9374,24 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9450,13 +9411,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9474,16 +9435,16 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9492,7 +9453,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9504,9 +9465,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9514,13 +9475,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9529,20 +9490,26 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>453</v>
+        <v>246</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9562,13 +9529,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9586,10 +9553,10 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -9604,7 +9571,7 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9616,9 +9583,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9632,7 +9599,7 @@
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9641,18 +9608,20 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9676,13 +9645,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9700,7 +9669,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9709,7 +9678,7 @@
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>98</v>
@@ -9718,7 +9687,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9732,7 +9701,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9755,24 +9724,22 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9816,7 +9783,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9825,7 +9792,7 @@
         <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>98</v>
@@ -9834,7 +9801,7 @@
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9843,12 +9810,12 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9871,26 +9838,22 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>246</v>
+        <v>478</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P69" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9934,7 +9897,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9943,7 +9906,7 @@
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -9952,7 +9915,7 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9966,7 +9929,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9977,7 +9940,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -9989,20 +9952,18 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10050,13 +10011,13 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>482</v>
@@ -10068,7 +10029,7 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10080,9 +10041,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10096,7 +10057,7 @@
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10105,17 +10066,15 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>484</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>485</v>
+        <v>163</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10164,7 +10123,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>483</v>
+        <v>165</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10173,44 +10132,44 @@
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10219,16 +10178,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>490</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>493</v>
+        <v>189</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10278,43 +10237,43 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10324,27 +10283,29 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>496</v>
+        <v>381</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10392,7 +10353,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>495</v>
+        <v>383</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10401,16 +10362,16 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10424,7 +10385,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10432,7 +10393,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -10447,15 +10408,17 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>163</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10480,13 +10443,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10504,10 +10467,10 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>165</v>
+        <v>490</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10516,13 +10479,13 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10536,18 +10499,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -10559,22 +10522,24 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>189</v>
+        <v>498</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10618,25 +10583,25 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>495</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10648,13 +10613,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10664,28 +10629,28 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>393</v>
+        <v>501</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>394</v>
+        <v>502</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>189</v>
+        <v>503</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>190</v>
+        <v>504</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10734,7 +10699,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>395</v>
+        <v>500</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10743,16 +10708,16 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10766,7 +10731,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10774,7 +10739,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>86</v>
@@ -10789,17 +10754,15 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>503</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>504</v>
+        <v>163</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -10824,13 +10787,13 @@
         <v>80</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>80</v>
@@ -10848,10 +10811,10 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>502</v>
+        <v>165</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -10860,13 +10823,13 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10884,14 +10847,14 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -10903,24 +10866,22 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
+        <v>189</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P78" t="s" s="2">
-        <v>511</v>
-      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10964,25 +10925,25 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>507</v>
+        <v>169</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -10994,13 +10955,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11010,28 +10971,28 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>189</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>190</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -11080,7 +11041,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>383</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11089,16 +11050,16 @@
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11110,9 +11071,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11120,13 +11081,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11135,15 +11096,17 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>163</v>
+        <v>511</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11168,13 +11131,13 @@
         <v>80</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
@@ -11192,10 +11155,10 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>86</v>
@@ -11204,13 +11167,13 @@
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11222,13 +11185,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11238,7 +11201,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11247,18 +11210,20 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11306,7 +11271,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>169</v>
+        <v>514</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11315,16 +11280,16 @@
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>166</v>
+        <v>520</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11333,357 +11298,11 @@
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11693,7 +11312,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,20 +495,20 @@
     <t>Indicates the types of resources that can record answers to a Questionnaire. Open Issue: Should this extension be moved to core?</t>
   </si>
   <si>
-    <t>is-modular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-is-modular}
+    <t>assemble-expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-assemble-expectation}
 </t>
   </si>
   <si>
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
-  </si>
-  <si>
-    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+  </si>
+  <si>
+    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>
   </si>
   <si>
     <t>targetStructureMap</t>
@@ -524,77 +524,6 @@
     <t>StructureMaps that have QuestionnaireResponses of this Questionnaire as 'source'- i.e. that can be used to create other artifacts from QuestionnaireResponses that are valid against this Questionnaire.</t>
   </si>
   <si>
-    <t>Questionnaire.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-targetStructureMap</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCanonical</t>
-  </si>
-  <si>
-    <t>http://worldhealthorganization.github.io/ddcc/StructureMap/ddcc-map-qr-bundle</t>
-  </si>
-  <si>
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
@@ -1139,7 +1068,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about specific groups or questions within it. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
@@ -1968,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1978,7 +1922,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.3203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2004,7 +1948,7 @@
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3627,35 +3571,39 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3703,25 +3651,25 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3733,9 +3681,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3743,31 +3691,35 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3803,16 +3755,16 @@
         <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>169</v>
@@ -3821,22 +3773,22 @@
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3847,7 +3799,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3855,10 +3807,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3867,27 +3819,29 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>80</v>
@@ -3929,39 +3883,39 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3975,24 +3929,26 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4029,17 +3985,19 @@
         <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4054,13 +4012,13 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4071,11 +4029,9 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4093,19 +4049,23 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4114,7 +4074,7 @@
         <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>80</v>
@@ -4153,7 +4113,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4162,7 +4122,7 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
@@ -4183,45 +4143,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4269,25 +4227,25 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4299,9 +4257,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4309,34 +4267,32 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4385,13 +4341,13 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>80</v>
@@ -4400,13 +4356,13 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4415,9 +4371,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4425,35 +4381,33 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4477,13 +4431,13 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>80</v>
@@ -4501,13 +4455,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4516,24 +4470,24 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4547,7 +4501,7 @@
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4556,18 +4510,20 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4615,7 +4571,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4630,13 +4586,13 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4645,9 +4601,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4658,10 +4614,10 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4670,19 +4626,19 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4707,13 +4663,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -4731,25 +4687,25 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4761,13 +4717,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4777,7 +4733,7 @@
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4786,16 +4742,16 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4845,7 +4801,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4860,13 +4816,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4877,7 +4833,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4888,7 +4844,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4897,20 +4853,22 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4959,13 +4917,13 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -4974,13 +4932,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4989,9 +4947,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4999,31 +4957,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5049,13 +5007,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -5073,13 +5031,13 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -5088,13 +5046,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5105,7 +5063,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5125,23 +5083,21 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5189,7 +5145,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5204,13 +5160,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5219,9 +5175,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5235,7 +5191,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5244,19 +5200,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5281,13 +5237,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5305,7 +5261,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5320,10 +5276,10 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5337,18 +5293,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5360,16 +5316,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5395,13 +5351,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5419,13 +5375,13 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5434,13 +5390,13 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5451,7 +5407,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5471,23 +5427,21 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5535,7 +5489,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5550,16 +5504,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5567,18 +5521,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5587,21 +5541,21 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5649,13 +5603,13 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
@@ -5664,16 +5618,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5681,7 +5635,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5704,16 +5658,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5763,7 +5717,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5778,16 +5732,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5795,7 +5749,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5806,7 +5760,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5815,22 +5769,22 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5879,13 +5833,13 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
@@ -5894,16 +5848,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5911,7 +5865,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5922,7 +5876,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5934,18 +5888,20 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5969,13 +5925,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5993,13 +5949,13 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -6008,16 +5964,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6025,7 +5981,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6036,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6045,21 +6001,21 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6083,13 +6039,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6107,13 +6063,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6122,38 +6078,38 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6162,18 +6118,18 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6221,31 +6177,31 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6253,7 +6209,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6276,17 +6232,15 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6335,7 +6289,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6347,19 +6301,19 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6367,7 +6321,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6378,7 +6332,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6390,20 +6344,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6439,43 +6389,41 @@
         <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6483,9 +6431,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6503,23 +6453,21 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>336</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>141</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6567,31 +6515,31 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6599,9 +6547,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6619,21 +6569,21 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6657,13 +6607,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6690,16 +6640,16 @@
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6713,9 +6663,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6724,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6736,16 +6688,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6795,7 +6747,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6804,16 +6756,16 @@
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>357</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6827,9 +6779,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6850,15 +6804,17 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6907,25 +6863,25 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>165</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6939,9 +6895,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6950,7 +6908,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6962,16 +6920,20 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7007,17 +6969,19 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7049,43 +7013,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7133,7 +7097,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7142,7 +7106,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>137</v>
@@ -7151,7 +7115,7 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7163,25 +7127,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7190,18 +7152,20 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>147</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7249,25 +7213,25 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7279,13 +7243,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7297,7 +7259,7 @@
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7306,18 +7268,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>363</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7365,25 +7329,25 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7397,11 +7361,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7410,7 +7372,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7422,18 +7384,20 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7457,13 +7421,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7481,7 +7445,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>169</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7490,16 +7454,16 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7511,15 +7475,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7529,7 +7491,7 @@
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7538,19 +7500,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>374</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7599,25 +7561,25 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7629,45 +7591,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7715,25 +7675,25 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7747,7 +7707,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7770,19 +7730,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7807,13 +7767,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7831,7 +7791,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -7849,7 +7809,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7863,7 +7823,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7874,31 +7834,31 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7947,25 +7907,25 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7979,7 +7939,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7990,7 +7950,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8002,20 +7962,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>343</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8039,13 +7995,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8063,25 +8019,25 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8093,23 +8049,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>402</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8118,20 +8074,18 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8179,25 +8133,25 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8209,43 +8163,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8293,25 +8249,25 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8323,9 +8279,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8339,7 +8295,7 @@
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8348,20 +8304,18 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>416</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8385,13 +8339,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8409,7 +8363,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>86</v>
@@ -8427,7 +8381,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8441,7 +8395,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8449,35 +8403,31 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8501,13 +8451,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8525,25 +8475,25 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8557,7 +8507,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8565,7 +8515,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
@@ -8580,13 +8530,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8613,13 +8563,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8637,25 +8587,25 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>165</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8669,18 +8619,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8692,16 +8642,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8727,13 +8677,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8751,25 +8701,25 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8781,49 +8731,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8867,25 +8817,25 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8897,9 +8847,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8907,13 +8857,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8922,22 +8872,26 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8981,16 +8935,16 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
@@ -8999,7 +8953,7 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9011,9 +8965,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9021,13 +8975,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9036,16 +8990,20 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9069,13 +9027,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9093,16 +9051,16 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -9111,7 +9069,7 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9123,9 +9081,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9133,13 +9091,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9148,15 +9106,17 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9181,13 +9141,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9205,16 +9165,16 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
@@ -9223,7 +9183,7 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9232,12 +9192,12 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9251,7 +9211,7 @@
         <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9260,16 +9220,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9295,13 +9255,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9319,7 +9279,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9328,7 +9288,7 @@
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9337,7 +9297,7 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9351,7 +9311,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9362,7 +9322,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9374,24 +9334,22 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P65" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9435,16 +9393,16 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9453,7 +9411,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9465,9 +9423,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,7 +9439,7 @@
         <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9490,26 +9448,20 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P66" t="s" s="2">
-        <v>464</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9553,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9562,16 +9514,16 @@
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9583,23 +9535,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9608,20 +9560,18 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9669,25 +9619,25 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>465</v>
+        <v>342</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9699,43 +9649,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>363</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9783,25 +9735,25 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9810,12 +9762,12 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9823,13 +9775,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -9838,16 +9790,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9873,13 +9825,13 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
@@ -9897,16 +9849,16 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -9915,7 +9867,7 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9927,9 +9879,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9940,10 +9892,10 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -9952,22 +9904,24 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="Q70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10011,16 +9965,16 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -10029,7 +9983,7 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10041,9 +9995,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10054,10 +10008,10 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10066,16 +10020,20 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>163</v>
+        <v>483</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10123,25 +10081,25 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>165</v>
+        <v>482</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10159,14 +10117,14 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10178,17 +10136,15 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10237,25 +10193,25 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10273,7 +10229,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>380</v>
+        <v>163</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10286,26 +10242,24 @@
         <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10353,7 +10307,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10371,7 +10325,7 @@
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10389,37 +10343,39 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>491</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>492</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>493</v>
+        <v>364</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10443,13 +10399,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10467,25 +10423,25 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>490</v>
+        <v>365</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10497,9 +10453,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10507,13 +10463,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10522,24 +10478,22 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P75" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10559,13 +10513,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -10583,10 +10537,10 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>86</v>
@@ -10601,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10615,7 +10569,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10638,19 +10592,19 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10699,7 +10653,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10708,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
@@ -10717,7 +10671,7 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10726,583 +10680,11 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11312,7 +10694,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](https://build.fhir.org/ig/HL7/sdc/OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](https://build.fhir.org/ig/HL7/sdc/OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,322 +284,326 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Questionnaire.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Questionnaire.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Questionnaire.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>designNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {designNote}
+</t>
+  </si>
+  <si>
+    <t>Design comments</t>
+  </si>
+  <si>
+    <t>Information captured by the author/maintainer of the questionnaire for development purposes, not intended to be seen by users.</t>
+  </si>
+  <si>
+    <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about the completion of the form in general. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>terminologyServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-preferredTerminologyServer}
+</t>
+  </si>
+  <si>
+    <t>Preferred terminology server</t>
+  </si>
+  <si>
+    <t>Indicates the terminology server(s) that are known to be capable of returning and potentially expanding the value set(s) associated with the whole questionnaire or a particular group or question within the questionnaire (depending on where the extension appears).  If a full URL is not provided AND the requested query is a terminology operation (e.g. $lookup or $expand) the client SHOULD execute the operation against the preferredTerminologyServer rather than the local repository.</t>
+  </si>
+  <si>
+    <t>This includes those referenced by answerValueSet as well as the unitValueSet extension.</t>
+  </si>
+  <si>
+    <t>performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-performerType}
+</t>
+  </si>
+  <si>
+    <t>Resource that can record answers to this Questionnaire</t>
+  </si>
+  <si>
+    <t>Indicates the types of resources that can record answers to a Questionnaire. Open Issue: Should this extension be moved to core?</t>
+  </si>
+  <si>
+    <t>assemble-expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-assemble-expectation}
+</t>
+  </si>
+  <si>
+    <t>Questionnaire is modular</t>
+  </si>
+  <si>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+  </si>
+  <si>
+    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>
+  </si>
+  <si>
+    <t>targetStructureMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-targetStructureMap}
+</t>
+  </si>
+  <si>
+    <t>Map to artifacts that can be populated from this Questionnaire</t>
+  </si>
+  <si>
+    <t>StructureMaps that have QuestionnaireResponses of this Questionnaire as 'source'- i.e. that can be used to create other artifacts from QuestionnaireResponses that are valid against this Questionnaire.</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Questionnaire.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Questionnaire.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Questionnaire.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>designNote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {designNote}
-</t>
-  </si>
-  <si>
-    <t>Design comments</t>
-  </si>
-  <si>
-    <t>Information captured by the author/maintainer of the questionnaire for development purposes, not intended to be seen by users.</t>
-  </si>
-  <si>
-    <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about the completion of the form in general. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>terminologyServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-preferredTerminologyServer}
-</t>
-  </si>
-  <si>
-    <t>Preferred terminology server</t>
-  </si>
-  <si>
-    <t>Indicates the terminology server(s) that are known to be capable of returning and potentially expanding the value set(s) associated with the whole questionnaire or a particular group or question within the questionnaire (depending on where the extension appears).  If a full URL is not provided AND the requested query is a terminology operation (e.g. $lookup or $expand) the client SHOULD execute the operation against the preferredTerminologyServer rather than the local repository.</t>
-  </si>
-  <si>
-    <t>This includes those referenced by answerValueSet as well as the unitValueSet extension.</t>
-  </si>
-  <si>
-    <t>performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-performerType}
-</t>
-  </si>
-  <si>
-    <t>Resource that can record answers to this Questionnaire</t>
-  </si>
-  <si>
-    <t>Indicates the types of resources that can record answers to a Questionnaire. Open Issue: Should this extension be moved to core?</t>
-  </si>
-  <si>
-    <t>assemble-expectation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-assemble-expectation}
-</t>
-  </si>
-  <si>
-    <t>Questionnaire is modular</t>
-  </si>
-  <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
-  </si>
-  <si>
-    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>
-  </si>
-  <si>
-    <t>targetStructureMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-targetStructureMap}
-</t>
-  </si>
-  <si>
-    <t>Map to artifacts that can be populated from this Questionnaire</t>
-  </si>
-  <si>
-    <t>StructureMaps that have QuestionnaireResponses of this Questionnaire as 'source'- i.e. that can be used to create other artifacts from QuestionnaireResponses that are valid against this Questionnaire.</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
   </si>
   <si>
     <t>Business version of the questionnaire</t>
@@ -1924,42 +1928,42 @@
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.3203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.6953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="125.93359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="125.9375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3938,16 +3942,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4012,13 +4016,13 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4029,7 +4033,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4052,19 +4056,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4113,7 +4117,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4122,7 +4126,7 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
@@ -4145,7 +4149,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4168,16 +4172,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4227,7 +4231,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4242,10 +4246,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4259,7 +4263,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4282,17 +4286,17 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4341,7 +4345,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4356,10 +4360,10 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4373,7 +4377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4399,13 +4403,13 @@
         <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4431,13 +4435,13 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>80</v>
@@ -4455,7 +4459,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4470,13 +4474,13 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4487,7 +4491,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4510,19 +4514,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4571,7 +4575,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4586,13 +4590,13 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4603,7 +4607,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4629,16 +4633,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4663,13 +4667,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -4687,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4702,10 +4706,10 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4719,11 +4723,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4742,16 +4746,16 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4801,7 +4805,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4816,13 +4820,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4833,7 +4837,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4856,19 +4860,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4917,7 +4921,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4932,13 +4936,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4972,16 +4976,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5031,7 +5035,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5046,10 +5050,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5063,7 +5067,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5086,16 +5090,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5145,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5160,10 +5164,10 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5177,7 +5181,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5200,19 +5204,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5261,7 +5265,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5276,10 +5280,10 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5293,7 +5297,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5316,16 +5320,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5351,13 +5355,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5375,7 +5379,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5390,10 +5394,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5407,7 +5411,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5430,16 +5434,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5489,7 +5493,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5504,13 +5508,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>185</v>
@@ -5521,11 +5525,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5544,17 +5548,17 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5603,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5618,10 +5622,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5635,7 +5639,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5658,16 +5662,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5717,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5732,10 +5736,10 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5749,7 +5753,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5772,19 +5776,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5833,7 +5837,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5848,10 +5852,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5865,7 +5869,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5888,19 +5892,19 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5949,7 +5953,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5964,10 +5968,10 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5981,7 +5985,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,17 +6008,17 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6039,13 +6043,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6063,7 +6067,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6081,7 +6085,7 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6095,7 +6099,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6118,16 +6122,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6177,7 +6181,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6186,16 +6190,16 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6209,7 +6213,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6232,13 +6236,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6289,7 +6293,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6307,7 +6311,7 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6321,7 +6325,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6399,7 +6403,7 @@
         <v>135</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6431,7 +6435,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>138</v>
@@ -6465,7 +6469,7 @@
         <v>141</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6515,7 +6519,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6547,7 +6551,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>144</v>
@@ -6631,7 +6635,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6663,10 +6667,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>80</v>
@@ -6688,16 +6692,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6747,7 +6751,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6765,7 +6769,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6779,10 +6783,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>80</v>
@@ -6804,16 +6808,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6863,7 +6867,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6895,10 +6899,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -6920,19 +6924,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6981,7 +6985,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7013,11 +7017,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7039,10 +7043,10 @@
         <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>166</v>
@@ -7097,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7129,7 +7133,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7152,19 +7156,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7213,7 +7217,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>86</v>
@@ -7231,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7245,7 +7249,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7271,16 +7275,16 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7333,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7347,7 +7351,7 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7361,7 +7365,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7384,19 +7388,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7421,13 +7425,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7445,7 +7449,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7454,7 +7458,7 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
@@ -7463,7 +7467,7 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7477,11 +7481,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7500,19 +7504,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7561,7 +7565,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7579,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7593,7 +7597,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7616,16 +7620,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7675,7 +7679,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7693,7 +7697,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7707,7 +7711,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7733,16 +7737,16 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7767,13 +7771,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7791,7 +7795,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -7809,7 +7813,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7823,7 +7827,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7846,19 +7850,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7907,7 +7911,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7919,13 +7923,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7939,7 +7943,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7962,13 +7966,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8019,7 +8023,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8037,7 +8041,7 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8051,7 +8055,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8077,10 +8081,10 @@
         <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>166</v>
@@ -8133,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8151,7 +8155,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8165,11 +8169,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8191,10 +8195,10 @@
         <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>166</v>
@@ -8249,7 +8253,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8281,7 +8285,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8304,16 +8308,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8363,7 +8367,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>86</v>
@@ -8381,7 +8385,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8395,7 +8399,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8421,10 +8425,10 @@
         <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8451,13 +8455,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8479,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>86</v>
@@ -8493,7 +8497,7 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8507,7 +8511,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8530,13 +8534,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8563,13 +8567,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8587,7 +8591,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>86</v>
@@ -8596,7 +8600,7 @@
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>98</v>
@@ -8605,7 +8609,7 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8619,7 +8623,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8645,13 +8649,13 @@
         <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8677,13 +8681,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8701,7 +8705,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8710,7 +8714,7 @@
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>98</v>
@@ -8719,7 +8723,7 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8733,7 +8737,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8756,23 +8760,23 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>80</v>
@@ -8817,7 +8821,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8826,7 +8830,7 @@
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
@@ -8835,7 +8839,7 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8849,7 +8853,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8872,70 +8876,70 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Q61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Q61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8944,7 +8948,7 @@
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
@@ -8953,7 +8957,7 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -8967,7 +8971,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8990,19 +8994,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9051,7 +9055,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9060,7 +9064,7 @@
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -9069,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9083,7 +9087,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9106,16 +9110,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9165,7 +9169,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9174,7 +9178,7 @@
         <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
@@ -9183,7 +9187,7 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9197,7 +9201,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9220,16 +9224,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9279,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9288,7 +9292,7 @@
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9297,7 +9301,7 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9311,7 +9315,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9334,16 +9338,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9393,7 +9397,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9402,7 +9406,7 @@
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9411,7 +9415,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9425,7 +9429,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9448,13 +9452,13 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9505,7 +9509,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9523,7 +9527,7 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9537,7 +9541,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9563,10 +9567,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>166</v>
@@ -9619,7 +9623,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9637,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9651,11 +9655,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9677,10 +9681,10 @@
         <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>166</v>
@@ -9735,7 +9739,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9767,7 +9771,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9790,16 +9794,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9825,13 +9829,13 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
@@ -9849,7 +9853,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9867,7 +9871,7 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9881,7 +9885,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9904,23 +9908,23 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q70" t="s" s="2">
         <v>80</v>
@@ -9965,7 +9969,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9983,7 +9987,7 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -9997,7 +10001,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10020,19 +10024,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10081,7 +10085,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10090,7 +10094,7 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
@@ -10099,7 +10103,7 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10113,7 +10117,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10136,13 +10140,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10193,7 +10197,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10211,7 +10215,7 @@
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10225,7 +10229,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10251,10 +10255,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>166</v>
@@ -10307,7 +10311,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10325,7 +10329,7 @@
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10339,11 +10343,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10365,10 +10369,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>166</v>
@@ -10423,7 +10427,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10455,7 +10459,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10478,16 +10482,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10513,13 +10517,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -10537,7 +10541,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>86</v>
@@ -10555,7 +10559,7 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10569,7 +10573,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10595,16 +10599,16 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10653,7 +10657,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10662,7 +10666,7 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
@@ -10671,7 +10675,7 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,10 +268,6 @@
     <t>Defines elements that allow conversion of a QuestionnaireResponse to a FHIR resource or Bundle of FHIR resources using the StructureMap-based extraction mechanism.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
-  </si>
-  <si>
     <t>Observation[moodCode=DEF]</t>
   </si>
   <si>
@@ -1063,7 +1059,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}que-14:Can only have answerConstraint if answerOption, answerValueset, or answerExpression are present. {answerConstraint.exists() implies answerOption.exists() or answerValueset.exists() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').exists()}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -2183,13 +2179,13 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>80</v>
@@ -2203,7 +2199,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2214,28 +2210,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2285,13 +2281,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2317,7 +2313,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2328,25 +2324,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2397,19 +2393,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2429,7 +2425,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2440,28 +2436,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2511,19 +2507,19 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>80</v>
@@ -2543,7 +2539,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2554,7 +2550,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>80</v>
@@ -2566,16 +2562,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2601,43 +2597,43 @@
         <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2657,18 +2653,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -2680,16 +2676,16 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2739,25 +2735,25 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -2771,11 +2767,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2794,16 +2790,16 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2853,7 +2849,7 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2871,7 +2867,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -2885,7 +2881,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2893,7 +2889,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
@@ -2908,13 +2904,13 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2953,17 +2949,17 @@
         <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2975,7 +2971,7 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -2995,10 +2991,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>80</v>
@@ -3008,7 +3004,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>80</v>
@@ -3020,16 +3016,16 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3079,7 +3075,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3088,10 +3084,10 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3111,10 +3107,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>80</v>
@@ -3136,16 +3132,16 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3195,7 +3191,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3204,10 +3200,10 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3227,10 +3223,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>80</v>
@@ -3243,7 +3239,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3252,13 +3248,13 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3309,7 +3305,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3318,10 +3314,10 @@
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3341,10 +3337,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>80</v>
@@ -3354,11 +3350,11 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3366,16 +3362,16 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3425,7 +3421,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3434,10 +3430,10 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3457,23 +3453,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3482,13 +3478,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3539,7 +3535,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3551,7 +3547,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3571,11 +3567,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3588,25 +3584,25 @@
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3655,7 +3651,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3667,13 +3663,13 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3687,7 +3683,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3695,34 +3691,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3771,28 +3767,28 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3803,7 +3799,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3823,22 +3819,22 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3887,7 +3883,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3899,19 +3895,19 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3919,7 +3915,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3930,28 +3926,28 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4001,28 +3997,28 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4033,7 +4029,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4044,31 +4040,31 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4117,25 +4113,25 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4149,7 +4145,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4160,28 +4156,28 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4231,25 +4227,25 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4263,7 +4259,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4286,17 +4282,17 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4345,7 +4341,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4357,13 +4353,13 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4377,7 +4373,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4385,31 +4381,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4435,52 +4431,52 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4502,31 +4498,31 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4575,28 +4571,28 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4607,7 +4603,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4621,28 +4617,28 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4667,14 +4663,14 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4691,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4703,13 +4699,13 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4723,39 +4719,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4805,28 +4801,28 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4837,7 +4833,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4848,31 +4844,31 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4921,28 +4917,28 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4953,7 +4949,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4973,19 +4969,19 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5035,7 +5031,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5047,13 +5043,13 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5067,7 +5063,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5078,7 +5074,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5090,16 +5086,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5149,25 +5145,25 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5181,7 +5177,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5201,22 +5197,22 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5265,7 +5261,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5277,13 +5273,13 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5317,19 +5313,19 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5355,14 +5351,14 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5379,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5391,13 +5387,13 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5411,7 +5407,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5422,7 +5418,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5434,16 +5430,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5493,31 +5489,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5525,18 +5521,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5548,17 +5544,17 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5607,31 +5603,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5639,7 +5635,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5650,7 +5646,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5662,16 +5658,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5721,31 +5717,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5753,7 +5749,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5764,7 +5760,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5776,19 +5772,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5837,31 +5833,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5869,7 +5865,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5880,31 +5876,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5953,31 +5949,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5985,7 +5981,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6005,20 +6001,20 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6043,14 +6039,14 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="Y36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6079,13 +6075,13 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6099,7 +6095,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6113,7 +6109,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6122,16 +6118,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6181,7 +6177,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6190,16 +6186,16 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AI37" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6213,7 +6209,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6224,7 +6220,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6236,13 +6232,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6293,25 +6289,25 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6325,7 +6321,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6348,13 +6344,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6393,17 +6389,17 @@
         <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6415,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
@@ -6435,10 +6431,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>80</v>
@@ -6448,7 +6444,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6460,16 +6456,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6519,7 +6515,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6528,10 +6524,10 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
@@ -6551,10 +6547,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>80</v>
@@ -6576,16 +6572,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6635,7 +6631,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6644,10 +6640,10 @@
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
@@ -6667,10 +6663,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>80</v>
@@ -6680,11 +6676,11 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6692,16 +6688,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6751,7 +6747,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6763,13 +6759,13 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6783,10 +6779,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>80</v>
@@ -6796,7 +6792,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6808,16 +6804,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6867,7 +6863,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6879,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -6899,10 +6895,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -6912,7 +6908,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6924,19 +6920,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6985,7 +6981,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6997,7 +6993,7 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
@@ -7017,11 +7013,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7034,25 +7030,25 @@
         <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M45" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7101,7 +7097,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7113,13 +7109,13 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7133,7 +7129,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7141,14 +7137,14 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7156,19 +7152,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7217,25 +7213,25 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7249,7 +7245,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7260,7 +7256,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7272,19 +7268,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7333,25 +7329,25 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7365,7 +7361,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7388,19 +7384,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7425,14 +7421,14 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="X48" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="X48" t="s" s="2">
+      <c r="Y48" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7449,7 +7445,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7458,16 +7454,16 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7481,22 +7477,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7504,19 +7500,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7565,25 +7561,25 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7597,7 +7593,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7608,11 +7604,11 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7620,16 +7616,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7679,25 +7675,25 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7711,7 +7707,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7719,14 +7715,14 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7734,19 +7730,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7771,49 +7767,49 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7827,7 +7823,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7844,25 +7840,25 @@
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7911,7 +7907,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7923,13 +7919,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7943,7 +7939,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7954,7 +7950,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -7966,13 +7962,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8023,25 +8019,25 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8055,11 +8051,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8078,16 +8074,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8137,7 +8133,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8149,13 +8145,13 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8169,11 +8165,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8186,25 +8182,25 @@
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8253,7 +8249,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8265,13 +8261,13 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8285,7 +8281,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8293,10 +8289,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8308,16 +8304,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8367,25 +8363,25 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8399,7 +8395,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8407,10 +8403,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8422,13 +8418,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8455,14 +8451,14 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8479,25 +8475,25 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8511,7 +8507,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8519,10 +8515,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8534,13 +8530,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8567,49 +8563,49 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8623,7 +8619,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8634,7 +8630,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8646,16 +8642,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8681,49 +8677,49 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8737,7 +8733,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8748,11 +8744,11 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8760,86 +8756,86 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8853,7 +8849,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8864,11 +8860,11 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8876,26 +8872,26 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="O61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Q61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8939,25 +8935,25 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -8971,7 +8967,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8982,11 +8978,11 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8994,19 +8990,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9055,25 +9051,25 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9087,7 +9083,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9098,11 +9094,11 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9110,16 +9106,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9169,25 +9165,25 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9196,12 +9192,12 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9212,11 +9208,11 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9224,16 +9220,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9283,25 +9279,25 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9315,7 +9311,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9329,7 +9325,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9338,16 +9334,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9397,7 +9393,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9406,16 +9402,16 @@
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9429,7 +9425,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9440,7 +9436,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9452,13 +9448,13 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9509,25 +9505,25 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9541,11 +9537,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9564,16 +9560,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9623,7 +9619,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9635,13 +9631,13 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9655,11 +9651,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9672,25 +9668,25 @@
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -9739,7 +9735,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9751,13 +9747,13 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9779,10 +9775,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9794,16 +9790,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9829,14 +9825,14 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9853,25 +9849,25 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9885,7 +9881,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9896,7 +9892,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -9908,23 +9904,23 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q70" t="s" s="2">
         <v>80</v>
@@ -9969,25 +9965,25 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10001,7 +9997,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10015,7 +10011,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10024,19 +10020,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10085,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10094,16 +10090,16 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10117,7 +10113,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10128,7 +10124,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10140,13 +10136,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10197,25 +10193,25 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10229,11 +10225,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10252,16 +10248,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10311,7 +10307,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10323,13 +10319,13 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10343,11 +10339,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10360,25 +10356,25 @@
         <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10427,7 +10423,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10439,13 +10435,13 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10459,7 +10455,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10467,14 +10463,14 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G75" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10482,16 +10478,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10517,14 +10513,14 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10541,25 +10537,25 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10573,7 +10569,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10587,7 +10583,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10599,16 +10595,16 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10657,7 +10653,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10666,16 +10662,16 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1081,7 +1081,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}que-14:Can only have answerConstraint if answerOption, answerValueset, or answerExpression are present. {answerConstraint.exists() implies answerOption.exists() or answerValueset.exists() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').exists()}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
